--- a/Financials/Quarterly/KOF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KOF_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26586B0-D5C3-431B-BF3D-44A047D74662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KOF" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>KOF</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,153 +689,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2765800</v>
+        <v>2283300</v>
       </c>
       <c r="E8" s="3">
-        <v>2639800</v>
+        <v>4470100</v>
       </c>
       <c r="F8" s="3">
-        <v>2778300</v>
+        <v>2571200</v>
       </c>
       <c r="G8" s="3">
-        <v>2621200</v>
+        <v>2543000</v>
       </c>
       <c r="H8" s="3">
-        <v>5421300</v>
+        <v>2299700</v>
       </c>
       <c r="I8" s="3">
-        <v>2641300</v>
+        <v>4788100</v>
       </c>
       <c r="J8" s="3">
+        <v>2572600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3031500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2248800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1547100</v>
+        <v>1236700</v>
       </c>
       <c r="E9" s="3">
-        <v>1476000</v>
+        <v>2405800</v>
       </c>
       <c r="F9" s="3">
-        <v>1477700</v>
+        <v>1437600</v>
       </c>
       <c r="G9" s="3">
-        <v>1452100</v>
+        <v>1372700</v>
       </c>
       <c r="H9" s="3">
-        <v>3022400</v>
+        <v>1259800</v>
       </c>
       <c r="I9" s="3">
-        <v>1481100</v>
+        <v>2649800</v>
       </c>
       <c r="J9" s="3">
+        <v>1442600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1704800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1246500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1218700</v>
+        <v>1046600</v>
       </c>
       <c r="E10" s="3">
-        <v>1163800</v>
+        <v>2064300</v>
       </c>
       <c r="F10" s="3">
-        <v>1300600</v>
+        <v>1133500</v>
       </c>
       <c r="G10" s="3">
-        <v>1169100</v>
+        <v>1170300</v>
       </c>
       <c r="H10" s="3">
-        <v>2398900</v>
+        <v>1039900</v>
       </c>
       <c r="I10" s="3">
-        <v>1160100</v>
+        <v>2138200</v>
       </c>
       <c r="J10" s="3">
+        <v>1130000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1326700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1002400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +860,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +890,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +922,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +954,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +986,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +999,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2432000</v>
+        <v>1985100</v>
       </c>
       <c r="E17" s="3">
-        <v>2328100</v>
+        <v>3884600</v>
       </c>
       <c r="F17" s="3">
-        <v>3782800</v>
+        <v>2267600</v>
       </c>
       <c r="G17" s="3">
-        <v>2361200</v>
+        <v>3810100</v>
       </c>
       <c r="H17" s="3">
-        <v>4776800</v>
+        <v>2054000</v>
       </c>
       <c r="I17" s="3">
-        <v>2168500</v>
+        <v>4200100</v>
       </c>
       <c r="J17" s="3">
+        <v>2112100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2714500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1994500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>333700</v>
+        <v>298300</v>
       </c>
       <c r="E18" s="3">
-        <v>311700</v>
+        <v>585500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1004500</v>
+        <v>303600</v>
       </c>
       <c r="G18" s="3">
-        <v>260000</v>
+        <v>-1267100</v>
       </c>
       <c r="H18" s="3">
-        <v>644400</v>
+        <v>245700</v>
       </c>
       <c r="I18" s="3">
-        <v>472800</v>
+        <v>587900</v>
       </c>
       <c r="J18" s="3">
+        <v>460500</v>
+      </c>
+      <c r="K18" s="3">
         <v>317000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1077,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13400</v>
+        <v>23800</v>
       </c>
       <c r="E20" s="3">
-        <v>-6400</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>101400</v>
+        <v>44400</v>
       </c>
       <c r="H20" s="3">
-        <v>95600</v>
+        <v>97000</v>
       </c>
       <c r="I20" s="3">
-        <v>52900</v>
+        <v>91300</v>
       </c>
       <c r="J20" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K20" s="3">
         <v>79600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>501400</v>
+        <v>408500</v>
       </c>
       <c r="E21" s="3">
-        <v>451700</v>
+        <v>878600</v>
       </c>
       <c r="F21" s="3">
-        <v>-868800</v>
+        <v>440000</v>
       </c>
       <c r="G21" s="3">
-        <v>544300</v>
+        <v>-1011700</v>
       </c>
       <c r="H21" s="3">
-        <v>1034100</v>
+        <v>448100</v>
       </c>
       <c r="I21" s="3">
-        <v>676100</v>
+        <v>965700</v>
       </c>
       <c r="J21" s="3">
+        <v>658500</v>
+      </c>
+      <c r="K21" s="3">
         <v>538600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89300</v>
+        <v>94800</v>
       </c>
       <c r="E22" s="3">
-        <v>106800</v>
+        <v>187600</v>
       </c>
       <c r="F22" s="3">
-        <v>105200</v>
+        <v>104100</v>
       </c>
       <c r="G22" s="3">
-        <v>115200</v>
+        <v>101300</v>
       </c>
       <c r="H22" s="3">
-        <v>247400</v>
+        <v>112900</v>
       </c>
       <c r="I22" s="3">
-        <v>133400</v>
+        <v>240900</v>
       </c>
       <c r="J22" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K22" s="3">
         <v>113400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>257800</v>
+        <v>227300</v>
       </c>
       <c r="E23" s="3">
-        <v>198400</v>
+        <v>398100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1115800</v>
+        <v>193300</v>
       </c>
       <c r="G23" s="3">
-        <v>246100</v>
+        <v>-1324000</v>
       </c>
       <c r="H23" s="3">
-        <v>492700</v>
+        <v>229800</v>
       </c>
       <c r="I23" s="3">
-        <v>392200</v>
+        <v>438300</v>
       </c>
       <c r="J23" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K23" s="3">
         <v>283300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>88300</v>
+        <v>71500</v>
       </c>
       <c r="E24" s="3">
-        <v>63500</v>
+        <v>123700</v>
       </c>
       <c r="F24" s="3">
-        <v>84300</v>
+        <v>61900</v>
       </c>
       <c r="G24" s="3">
-        <v>68800</v>
+        <v>64100</v>
       </c>
       <c r="H24" s="3">
-        <v>88700</v>
+        <v>57900</v>
       </c>
       <c r="I24" s="3">
-        <v>54900</v>
+        <v>80200</v>
       </c>
       <c r="J24" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K24" s="3">
         <v>87100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,37 +1267,43 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169400</v>
+        <v>155800</v>
       </c>
       <c r="E26" s="3">
-        <v>134900</v>
+        <v>274400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1200100</v>
+        <v>131400</v>
       </c>
       <c r="G26" s="3">
-        <v>177300</v>
+        <v>-1388100</v>
       </c>
       <c r="H26" s="3">
-        <v>404000</v>
+        <v>171900</v>
       </c>
       <c r="I26" s="3">
-        <v>337300</v>
+        <v>358100</v>
       </c>
       <c r="J26" s="3">
+        <v>328500</v>
+      </c>
+      <c r="K26" s="3">
         <v>196200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,28 +1311,31 @@
         <v>147700</v>
       </c>
       <c r="E27" s="3">
-        <v>128200</v>
+        <v>246700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1223100</v>
+        <v>124800</v>
       </c>
       <c r="G27" s="3">
-        <v>167400</v>
+        <v>-1410500</v>
       </c>
       <c r="H27" s="3">
-        <v>376000</v>
+        <v>162300</v>
       </c>
       <c r="I27" s="3">
-        <v>328200</v>
+        <v>330800</v>
       </c>
       <c r="J27" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K27" s="3">
         <v>185300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1363,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>21200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+        <v>8600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>156500</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>35400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1459,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13400</v>
+        <v>-23800</v>
       </c>
       <c r="E32" s="3">
-        <v>6400</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>-101400</v>
+        <v>-44400</v>
       </c>
       <c r="H32" s="3">
-        <v>-95600</v>
+        <v>-97000</v>
       </c>
       <c r="I32" s="3">
-        <v>-52900</v>
+        <v>-91300</v>
       </c>
       <c r="J32" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-79600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147700</v>
+        <v>168900</v>
       </c>
       <c r="E33" s="3">
-        <v>128200</v>
+        <v>255200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1223100</v>
+        <v>124800</v>
       </c>
       <c r="G33" s="3">
-        <v>167400</v>
+        <v>-1254000</v>
       </c>
       <c r="H33" s="3">
-        <v>376000</v>
+        <v>163000</v>
       </c>
       <c r="I33" s="3">
-        <v>328200</v>
+        <v>366200</v>
       </c>
       <c r="J33" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K33" s="3">
         <v>185300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1555,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147700</v>
+        <v>168900</v>
       </c>
       <c r="E35" s="3">
-        <v>128200</v>
+        <v>255200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1223100</v>
+        <v>124800</v>
       </c>
       <c r="G35" s="3">
-        <v>167400</v>
+        <v>-1254000</v>
       </c>
       <c r="H35" s="3">
-        <v>376000</v>
+        <v>163000</v>
       </c>
       <c r="I35" s="3">
-        <v>328200</v>
+        <v>366200</v>
       </c>
       <c r="J35" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K35" s="3">
         <v>185300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1640,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1654,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1246200</v>
+        <v>955500</v>
       </c>
       <c r="E41" s="3">
-        <v>1038100</v>
+        <v>1213800</v>
       </c>
       <c r="F41" s="3">
-        <v>996500</v>
+        <v>1011100</v>
       </c>
       <c r="G41" s="3">
-        <v>1072900</v>
+        <v>970600</v>
       </c>
       <c r="H41" s="3">
-        <v>1282700</v>
+        <v>1045100</v>
       </c>
       <c r="I41" s="3">
-        <v>691900</v>
+        <v>1249300</v>
       </c>
       <c r="J41" s="3">
+        <v>673900</v>
+      </c>
+      <c r="K41" s="3">
         <v>556300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1067600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37000</v>
+        <v>69400</v>
       </c>
       <c r="E42" s="3">
-        <v>30100</v>
+        <v>36100</v>
       </c>
       <c r="F42" s="3">
-        <v>39100</v>
+        <v>29300</v>
       </c>
       <c r="G42" s="3">
-        <v>43000</v>
+        <v>38100</v>
       </c>
       <c r="H42" s="3">
-        <v>35800</v>
+        <v>41900</v>
       </c>
       <c r="I42" s="3">
-        <v>57900</v>
+        <v>34900</v>
       </c>
       <c r="J42" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K42" s="3">
         <v>80200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1014800</v>
+        <v>947100</v>
       </c>
       <c r="E43" s="3">
-        <v>1067500</v>
+        <v>988500</v>
       </c>
       <c r="F43" s="3">
-        <v>1207900</v>
+        <v>1039700</v>
       </c>
       <c r="G43" s="3">
-        <v>922900</v>
+        <v>1176500</v>
       </c>
       <c r="H43" s="3">
-        <v>808300</v>
+        <v>898900</v>
       </c>
       <c r="I43" s="3">
-        <v>887100</v>
+        <v>787200</v>
       </c>
       <c r="J43" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1029000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>726700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>604500</v>
+        <v>532700</v>
       </c>
       <c r="E44" s="3">
-        <v>644700</v>
+        <v>588800</v>
       </c>
       <c r="F44" s="3">
-        <v>603400</v>
+        <v>628000</v>
       </c>
       <c r="G44" s="3">
-        <v>596800</v>
+        <v>587800</v>
       </c>
       <c r="H44" s="3">
-        <v>582100</v>
+        <v>581300</v>
       </c>
       <c r="I44" s="3">
-        <v>712800</v>
+        <v>566900</v>
       </c>
       <c r="J44" s="3">
+        <v>694300</v>
+      </c>
+      <c r="K44" s="3">
         <v>570500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121500</v>
+        <v>1575200</v>
       </c>
       <c r="E45" s="3">
-        <v>150600</v>
+        <v>118300</v>
       </c>
       <c r="F45" s="3">
-        <v>108400</v>
+        <v>146700</v>
       </c>
       <c r="G45" s="3">
-        <v>230800</v>
+        <v>105600</v>
       </c>
       <c r="H45" s="3">
-        <v>216900</v>
+        <v>224800</v>
       </c>
       <c r="I45" s="3">
-        <v>236400</v>
+        <v>211300</v>
       </c>
       <c r="J45" s="3">
+        <v>230300</v>
+      </c>
+      <c r="K45" s="3">
         <v>177600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3024100</v>
+        <v>4080000</v>
       </c>
       <c r="E46" s="3">
-        <v>2931000</v>
+        <v>2945500</v>
       </c>
       <c r="F46" s="3">
-        <v>2955400</v>
+        <v>2854800</v>
       </c>
       <c r="G46" s="3">
-        <v>2866500</v>
+        <v>2878600</v>
       </c>
       <c r="H46" s="3">
-        <v>2925700</v>
+        <v>2792000</v>
       </c>
       <c r="I46" s="3">
-        <v>2586100</v>
+        <v>2849600</v>
       </c>
       <c r="J46" s="3">
+        <v>2518900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2413600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2526800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>748800</v>
+        <v>701500</v>
       </c>
       <c r="E47" s="3">
-        <v>650200</v>
+        <v>729400</v>
       </c>
       <c r="F47" s="3">
-        <v>726600</v>
+        <v>633300</v>
       </c>
       <c r="G47" s="3">
-        <v>602300</v>
+        <v>707700</v>
       </c>
       <c r="H47" s="3">
-        <v>588700</v>
+        <v>586700</v>
       </c>
       <c r="I47" s="3">
-        <v>668100</v>
+        <v>573400</v>
       </c>
       <c r="J47" s="3">
+        <v>650800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1438500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1331900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3851000</v>
+        <v>3016800</v>
       </c>
       <c r="E48" s="3">
-        <v>3783100</v>
+        <v>3750900</v>
       </c>
       <c r="F48" s="3">
-        <v>4026400</v>
+        <v>3684800</v>
       </c>
       <c r="G48" s="3">
-        <v>4007600</v>
+        <v>3921800</v>
       </c>
       <c r="H48" s="3">
-        <v>3792900</v>
+        <v>3903400</v>
       </c>
       <c r="I48" s="3">
-        <v>4221800</v>
+        <v>3694300</v>
       </c>
       <c r="J48" s="3">
+        <v>4112100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3466800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3047200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6499100</v>
+        <v>5870900</v>
       </c>
       <c r="E49" s="3">
-        <v>6347200</v>
+        <v>6330200</v>
       </c>
       <c r="F49" s="3">
-        <v>6597300</v>
+        <v>6182300</v>
       </c>
       <c r="G49" s="3">
-        <v>6563500</v>
+        <v>6425800</v>
       </c>
       <c r="H49" s="3">
-        <v>6334700</v>
+        <v>6393000</v>
       </c>
       <c r="I49" s="3">
-        <v>6682600</v>
+        <v>6170100</v>
       </c>
       <c r="J49" s="3">
+        <v>6509000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6582500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5362300</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1972,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2004,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>822800</v>
+        <v>750500</v>
       </c>
       <c r="E52" s="3">
-        <v>931300</v>
+        <v>801400</v>
       </c>
       <c r="F52" s="3">
-        <v>863800</v>
+        <v>907100</v>
       </c>
       <c r="G52" s="3">
-        <v>996800</v>
+        <v>841300</v>
       </c>
       <c r="H52" s="3">
         <v>970900</v>
       </c>
       <c r="I52" s="3">
-        <v>1003500</v>
+        <v>945600</v>
       </c>
       <c r="J52" s="3">
+        <v>977500</v>
+      </c>
+      <c r="K52" s="3">
         <v>927200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>484400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2068,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14945900</v>
+        <v>14419700</v>
       </c>
       <c r="E54" s="3">
-        <v>14642800</v>
+        <v>14557400</v>
       </c>
       <c r="F54" s="3">
-        <v>15169500</v>
+        <v>14262300</v>
       </c>
       <c r="G54" s="3">
-        <v>15036800</v>
+        <v>14775300</v>
       </c>
       <c r="H54" s="3">
-        <v>14612800</v>
+        <v>14646000</v>
       </c>
       <c r="I54" s="3">
-        <v>15162200</v>
+        <v>14233000</v>
       </c>
       <c r="J54" s="3">
+        <v>14768200</v>
+      </c>
+      <c r="K54" s="3">
         <v>14828500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12752600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2116,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2130,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>888300</v>
+        <v>807300</v>
       </c>
       <c r="E57" s="3">
-        <v>979200</v>
+        <v>865200</v>
       </c>
       <c r="F57" s="3">
-        <v>1059700</v>
+        <v>953700</v>
       </c>
       <c r="G57" s="3">
-        <v>998100</v>
+        <v>1032100</v>
       </c>
       <c r="H57" s="3">
-        <v>967600</v>
+        <v>972100</v>
       </c>
       <c r="I57" s="3">
-        <v>1043900</v>
+        <v>942500</v>
       </c>
       <c r="J57" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1478500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1206000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>682000</v>
+        <v>591900</v>
       </c>
       <c r="E58" s="3">
-        <v>859000</v>
+        <v>664300</v>
       </c>
       <c r="F58" s="3">
-        <v>911600</v>
+        <v>836700</v>
       </c>
       <c r="G58" s="3">
-        <v>410700</v>
+        <v>887900</v>
       </c>
       <c r="H58" s="3">
-        <v>396100</v>
+        <v>400000</v>
       </c>
       <c r="I58" s="3">
-        <v>608200</v>
+        <v>385800</v>
       </c>
       <c r="J58" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K58" s="3">
         <v>162100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>491800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1060400</v>
+        <v>1290800</v>
       </c>
       <c r="E59" s="3">
-        <v>1332600</v>
+        <v>1032800</v>
       </c>
       <c r="F59" s="3">
-        <v>980800</v>
+        <v>1297900</v>
       </c>
       <c r="G59" s="3">
-        <v>831800</v>
+        <v>955300</v>
       </c>
       <c r="H59" s="3">
-        <v>705500</v>
+        <v>810200</v>
       </c>
       <c r="I59" s="3">
-        <v>859400</v>
+        <v>687100</v>
       </c>
       <c r="J59" s="3">
+        <v>837100</v>
+      </c>
+      <c r="K59" s="3">
         <v>476400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>280700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2630700</v>
+        <v>2689900</v>
       </c>
       <c r="E60" s="3">
-        <v>3170800</v>
+        <v>2562300</v>
       </c>
       <c r="F60" s="3">
-        <v>2952100</v>
+        <v>3088400</v>
       </c>
       <c r="G60" s="3">
-        <v>2240600</v>
+        <v>2875300</v>
       </c>
       <c r="H60" s="3">
-        <v>2069200</v>
+        <v>2182300</v>
       </c>
       <c r="I60" s="3">
-        <v>2511500</v>
+        <v>2015400</v>
       </c>
       <c r="J60" s="3">
+        <v>2446200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2117000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1978600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4344300</v>
+        <v>4190500</v>
       </c>
       <c r="E61" s="3">
-        <v>3720500</v>
+        <v>4231400</v>
       </c>
       <c r="F61" s="3">
-        <v>3810800</v>
+        <v>3623900</v>
       </c>
       <c r="G61" s="3">
-        <v>4482000</v>
+        <v>3711800</v>
       </c>
       <c r="H61" s="3">
-        <v>4744700</v>
+        <v>4365500</v>
       </c>
       <c r="I61" s="3">
-        <v>4543600</v>
+        <v>4621400</v>
       </c>
       <c r="J61" s="3">
+        <v>4425500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4559000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3705600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>917700</v>
+        <v>757800</v>
       </c>
       <c r="E62" s="3">
-        <v>904400</v>
+        <v>893900</v>
       </c>
       <c r="F62" s="3">
-        <v>934900</v>
+        <v>880900</v>
       </c>
       <c r="G62" s="3">
-        <v>1122700</v>
+        <v>910600</v>
       </c>
       <c r="H62" s="3">
-        <v>1016400</v>
+        <v>1093500</v>
       </c>
       <c r="I62" s="3">
-        <v>1134700</v>
+        <v>990000</v>
       </c>
       <c r="J62" s="3">
+        <v>1105200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1290200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>749800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2352,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2384,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2416,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8798000</v>
+        <v>8462100</v>
       </c>
       <c r="E66" s="3">
-        <v>8673900</v>
+        <v>8569300</v>
       </c>
       <c r="F66" s="3">
-        <v>8661100</v>
+        <v>8448500</v>
       </c>
       <c r="G66" s="3">
-        <v>8713000</v>
+        <v>8436000</v>
       </c>
       <c r="H66" s="3">
-        <v>8666200</v>
+        <v>8486500</v>
       </c>
       <c r="I66" s="3">
-        <v>9086200</v>
+        <v>8441000</v>
       </c>
       <c r="J66" s="3">
+        <v>8850100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8343000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6702300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2464,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2494,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2526,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2558,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2590,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3178800</v>
+        <v>3251800</v>
       </c>
       <c r="E72" s="3">
-        <v>3031200</v>
+        <v>3096200</v>
       </c>
       <c r="F72" s="3">
-        <v>3280900</v>
+        <v>2952500</v>
       </c>
       <c r="G72" s="3">
-        <v>4506500</v>
+        <v>3195600</v>
       </c>
       <c r="H72" s="3">
-        <v>4409900</v>
+        <v>4389400</v>
       </c>
       <c r="I72" s="3">
-        <v>4275800</v>
+        <v>4295300</v>
       </c>
       <c r="J72" s="3">
+        <v>4164700</v>
+      </c>
+      <c r="K72" s="3">
         <v>4331800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2654,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2686,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2718,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6147900</v>
+        <v>5957600</v>
       </c>
       <c r="E76" s="3">
-        <v>5968900</v>
+        <v>5988100</v>
       </c>
       <c r="F76" s="3">
-        <v>6508400</v>
+        <v>5813700</v>
       </c>
       <c r="G76" s="3">
-        <v>6323800</v>
+        <v>6339300</v>
       </c>
       <c r="H76" s="3">
-        <v>5946500</v>
+        <v>6159500</v>
       </c>
       <c r="I76" s="3">
-        <v>6076000</v>
+        <v>5792000</v>
       </c>
       <c r="J76" s="3">
+        <v>5918100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6485500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6050300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2782,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147700</v>
+        <v>168900</v>
       </c>
       <c r="E81" s="3">
-        <v>128200</v>
+        <v>255200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1223100</v>
+        <v>124800</v>
       </c>
       <c r="G81" s="3">
-        <v>167400</v>
+        <v>-1254000</v>
       </c>
       <c r="H81" s="3">
-        <v>376000</v>
+        <v>163000</v>
       </c>
       <c r="I81" s="3">
-        <v>328200</v>
+        <v>366200</v>
       </c>
       <c r="J81" s="3">
+        <v>319700</v>
+      </c>
+      <c r="K81" s="3">
         <v>185300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2867,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>154300</v>
+        <v>86400</v>
       </c>
       <c r="E83" s="3">
-        <v>146500</v>
+        <v>293000</v>
       </c>
       <c r="F83" s="3">
-        <v>141900</v>
+        <v>142700</v>
       </c>
       <c r="G83" s="3">
-        <v>183000</v>
+        <v>138200</v>
       </c>
       <c r="H83" s="3">
-        <v>294100</v>
+        <v>178300</v>
       </c>
       <c r="I83" s="3">
-        <v>150500</v>
+        <v>286500</v>
       </c>
       <c r="J83" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K83" s="3">
         <v>142000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2929,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2961,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2993,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3025,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3057,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>446300</v>
+        <v>19800</v>
       </c>
       <c r="E89" s="3">
-        <v>257200</v>
+        <v>685300</v>
       </c>
       <c r="F89" s="3">
-        <v>601600</v>
+        <v>250600</v>
       </c>
       <c r="G89" s="3">
-        <v>409300</v>
+        <v>585900</v>
       </c>
       <c r="H89" s="3">
-        <v>800600</v>
+        <v>398700</v>
       </c>
       <c r="I89" s="3">
-        <v>317300</v>
+        <v>779800</v>
       </c>
       <c r="J89" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K89" s="3">
         <v>596600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3105,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-127600</v>
+        <v>-106900</v>
       </c>
       <c r="E91" s="3">
-        <v>-99900</v>
+        <v>-206300</v>
       </c>
       <c r="F91" s="3">
-        <v>-266400</v>
+        <v>-81700</v>
       </c>
       <c r="G91" s="3">
-        <v>-173800</v>
+        <v>-283000</v>
       </c>
       <c r="H91" s="3">
-        <v>-346900</v>
+        <v>-78600</v>
       </c>
       <c r="I91" s="3">
-        <v>-206400</v>
+        <v>-211000</v>
       </c>
       <c r="J91" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-301600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-152500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3167,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3199,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-460300</v>
+        <v>-120900</v>
       </c>
       <c r="E94" s="3">
-        <v>-87300</v>
+        <v>-533400</v>
       </c>
       <c r="F94" s="3">
-        <v>-525300</v>
+        <v>-85100</v>
       </c>
       <c r="G94" s="3">
-        <v>-148900</v>
+        <v>-532200</v>
       </c>
       <c r="H94" s="3">
-        <v>53100</v>
+        <v>-124500</v>
       </c>
       <c r="I94" s="3">
-        <v>-8000</v>
+        <v>51700</v>
       </c>
       <c r="J94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-978900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3247,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2988,28 +3257,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-182500</v>
       </c>
       <c r="F96" s="3">
-        <v>-187400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-182500</v>
       </c>
       <c r="H96" s="3">
-        <v>-183900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-179100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-188000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3309,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3341,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3373,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>189700</v>
+        <v>-104300</v>
       </c>
       <c r="E100" s="3">
-        <v>-67500</v>
+        <v>119000</v>
       </c>
       <c r="F100" s="3">
-        <v>-134400</v>
+        <v>-65800</v>
       </c>
       <c r="G100" s="3">
-        <v>-459000</v>
+        <v>-130900</v>
       </c>
       <c r="H100" s="3">
-        <v>21200</v>
+        <v>-447000</v>
       </c>
       <c r="I100" s="3">
-        <v>-122300</v>
+        <v>20700</v>
       </c>
       <c r="J100" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-66800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32500</v>
+        <v>-53000</v>
       </c>
       <c r="E101" s="3">
-        <v>-60800</v>
+        <v>-27600</v>
       </c>
       <c r="F101" s="3">
-        <v>-18300</v>
+        <v>-59300</v>
       </c>
       <c r="G101" s="3">
-        <v>-11200</v>
+        <v>-17800</v>
       </c>
       <c r="H101" s="3">
-        <v>-148500</v>
+        <v>-10900</v>
       </c>
       <c r="I101" s="3">
-        <v>-51300</v>
+        <v>-144700</v>
       </c>
       <c r="J101" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-62100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>208200</v>
+        <v>-258300</v>
       </c>
       <c r="E102" s="3">
-        <v>41500</v>
+        <v>243200</v>
       </c>
       <c r="F102" s="3">
-        <v>-76400</v>
+        <v>40500</v>
       </c>
       <c r="G102" s="3">
-        <v>-209700</v>
+        <v>-74400</v>
       </c>
       <c r="H102" s="3">
-        <v>726400</v>
+        <v>-204300</v>
       </c>
       <c r="I102" s="3">
-        <v>135600</v>
+        <v>707500</v>
       </c>
       <c r="J102" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-511300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>236800</v>
       </c>
     </row>

--- a/Financials/Quarterly/KOF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KOF_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26586B0-D5C3-431B-BF3D-44A047D74662}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KOF" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>KOF</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,166 +654,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2283300</v>
+        <v>2610700</v>
       </c>
       <c r="E8" s="3">
-        <v>4470100</v>
+        <v>5028900</v>
       </c>
       <c r="F8" s="3">
-        <v>2571200</v>
+        <v>2491000</v>
       </c>
       <c r="G8" s="3">
+        <v>2775100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2366800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2389400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2365400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2543000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>2299700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>4788100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>2572600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>3031500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>2248800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1236700</v>
+        <v>1449200</v>
       </c>
       <c r="E9" s="3">
-        <v>2405800</v>
+        <v>2734000</v>
       </c>
       <c r="F9" s="3">
-        <v>1437600</v>
+        <v>1365600</v>
       </c>
       <c r="G9" s="3">
+        <v>1499900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1281900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1271200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1281700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1372700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>1259800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>2649800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>1442600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>1704800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>1246500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1046600</v>
+        <v>1161600</v>
       </c>
       <c r="E10" s="3">
-        <v>2064300</v>
+        <v>2294900</v>
       </c>
       <c r="F10" s="3">
-        <v>1133500</v>
+        <v>1125400</v>
       </c>
       <c r="G10" s="3">
+        <v>1275200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1084900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1118200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1083700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1170300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1039900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>2138200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1326700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1002400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +877,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +913,20 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +957,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,8 +1001,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1045,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,72 +1068,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1985100</v>
+        <v>2234100</v>
       </c>
       <c r="E17" s="3">
-        <v>3884600</v>
+        <v>4382900</v>
       </c>
       <c r="F17" s="3">
-        <v>2267600</v>
+        <v>2186600</v>
       </c>
       <c r="G17" s="3">
+        <v>2397500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2057600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2069800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2057000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3810100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>2054000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>4200100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>2112100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>2714500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>1994500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>298300</v>
+        <v>376600</v>
       </c>
       <c r="E18" s="3">
-        <v>585500</v>
+        <v>646000</v>
       </c>
       <c r="F18" s="3">
-        <v>303600</v>
+        <v>304400</v>
       </c>
       <c r="G18" s="3">
+        <v>377600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>309200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>319500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1267100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>245700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>587900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>460500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>317000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>254300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,168 +1174,232 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23800</v>
+        <v>17400</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>13400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>8600</v>
       </c>
       <c r="G20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K20" s="3">
         <v>44400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>97000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>91300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>79600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>408500</v>
+        <v>534300</v>
       </c>
       <c r="E21" s="3">
-        <v>878600</v>
+        <v>944900</v>
       </c>
       <c r="F21" s="3">
-        <v>440000</v>
+        <v>456700</v>
       </c>
       <c r="G21" s="3">
+        <v>518600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>423400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>507700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1011700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>448100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>965700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>658500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>538600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>375900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94800</v>
+        <v>95700</v>
       </c>
       <c r="E22" s="3">
-        <v>187600</v>
+        <v>184900</v>
       </c>
       <c r="F22" s="3">
-        <v>104100</v>
+        <v>93400</v>
       </c>
       <c r="G22" s="3">
+        <v>113000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>98300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K22" s="3">
         <v>101300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>112900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>240900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>130000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>113400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>102200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>227300</v>
+        <v>298300</v>
       </c>
       <c r="E23" s="3">
-        <v>398100</v>
+        <v>474500</v>
       </c>
       <c r="F23" s="3">
-        <v>193300</v>
+        <v>219600</v>
       </c>
       <c r="G23" s="3">
+        <v>261200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>235600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>239800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1324000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>229800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>438300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>382000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>283300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>158100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71500</v>
+        <v>77200</v>
       </c>
       <c r="E24" s="3">
-        <v>123700</v>
+        <v>134800</v>
       </c>
       <c r="F24" s="3">
-        <v>61900</v>
+        <v>71700</v>
       </c>
       <c r="G24" s="3">
+        <v>79700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>74100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>74900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K24" s="3">
         <v>64100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>57900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>80200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>53500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>87100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1430,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>155800</v>
+        <v>221100</v>
       </c>
       <c r="E26" s="3">
-        <v>274400</v>
+        <v>339700</v>
       </c>
       <c r="F26" s="3">
-        <v>131400</v>
+        <v>147900</v>
       </c>
       <c r="G26" s="3">
+        <v>181500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>161500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>164900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>133500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1388100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>171900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>358100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>328500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>196200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>121500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>147700</v>
+        <v>215900</v>
       </c>
       <c r="E27" s="3">
-        <v>246700</v>
+        <v>325300</v>
       </c>
       <c r="F27" s="3">
-        <v>124800</v>
+        <v>139400</v>
       </c>
       <c r="G27" s="3">
+        <v>156500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>153100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>142900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1410500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>162300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>330800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>319700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>185300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,40 +1562,64 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>21200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>149600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K29" s="3">
+        <v>156500</v>
+      </c>
+      <c r="L29" s="3">
+        <v>800</v>
+      </c>
+      <c r="M29" s="3">
+        <v>35400</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>156500</v>
-      </c>
-      <c r="H29" s="3">
-        <v>800</v>
-      </c>
-      <c r="I29" s="3">
-        <v>35400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1650,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1694,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23800</v>
+        <v>-17400</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-13400</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>-8600</v>
       </c>
       <c r="G32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-97000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-91300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-79600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>168900</v>
+        <v>215900</v>
       </c>
       <c r="E33" s="3">
-        <v>255200</v>
+        <v>325300</v>
       </c>
       <c r="F33" s="3">
-        <v>124800</v>
+        <v>139400</v>
       </c>
       <c r="G33" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>175100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>149100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1254000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>163000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>366200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>319700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>185300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1826,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>168900</v>
+        <v>215900</v>
       </c>
       <c r="E35" s="3">
-        <v>255200</v>
+        <v>325300</v>
       </c>
       <c r="F35" s="3">
-        <v>124800</v>
+        <v>139400</v>
       </c>
       <c r="G35" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>175100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>149100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1254000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>163000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>366200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>319700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>185300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1945,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,296 +1963,408 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>955500</v>
+        <v>1620600</v>
       </c>
       <c r="E41" s="3">
-        <v>1213800</v>
+        <v>1259100</v>
       </c>
       <c r="F41" s="3">
-        <v>1011100</v>
+        <v>1266000</v>
       </c>
       <c r="G41" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>990400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1258200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="K41" s="3">
         <v>970600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>1045100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>1249300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>673900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>556300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>1067600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69400</v>
+        <v>75100</v>
       </c>
       <c r="E42" s="3">
-        <v>36100</v>
+        <v>48100</v>
       </c>
       <c r="F42" s="3">
-        <v>29300</v>
+        <v>40100</v>
       </c>
       <c r="G42" s="3">
+        <v>43200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>72000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K42" s="3">
         <v>38100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>41900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>34900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>56400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>80200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>947100</v>
+        <v>1006400</v>
       </c>
       <c r="E43" s="3">
-        <v>988500</v>
+        <v>946000</v>
       </c>
       <c r="F43" s="3">
-        <v>1039700</v>
+        <v>889000</v>
       </c>
       <c r="G43" s="3">
+        <v>1119700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>981700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1024600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1077700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1176500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>898900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>787200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>864000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>1029000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>726700</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>532700</v>
+        <v>517700</v>
       </c>
       <c r="E44" s="3">
-        <v>588800</v>
+        <v>537200</v>
       </c>
       <c r="F44" s="3">
-        <v>628000</v>
+        <v>571500</v>
       </c>
       <c r="G44" s="3">
+        <v>538800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>552100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>610300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K44" s="3">
         <v>587800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>581300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>566900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>694300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>570500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>503100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1575200</v>
+        <v>104400</v>
       </c>
       <c r="E45" s="3">
-        <v>118300</v>
+        <v>101200</v>
       </c>
       <c r="F45" s="3">
-        <v>146700</v>
+        <v>117000</v>
       </c>
       <c r="G45" s="3">
+        <v>108400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1632800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>122600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K45" s="3">
         <v>105600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>224800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>211300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>230300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>177600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4080000</v>
+        <v>3324300</v>
       </c>
       <c r="E46" s="3">
-        <v>2945500</v>
+        <v>2891500</v>
       </c>
       <c r="F46" s="3">
-        <v>2854800</v>
+        <v>2883600</v>
       </c>
       <c r="G46" s="3">
+        <v>3082100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4229100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3053100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2959100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2878600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>2792000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>2849600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>2518900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>2413600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>2526800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>701500</v>
+        <v>627900</v>
       </c>
       <c r="E47" s="3">
-        <v>729400</v>
+        <v>643700</v>
       </c>
       <c r="F47" s="3">
-        <v>633300</v>
+        <v>659900</v>
       </c>
       <c r="G47" s="3">
+        <v>677700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>727100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>756000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>656500</v>
+      </c>
+      <c r="K47" s="3">
         <v>707700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>586700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>573400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>650800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>1438500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>1331900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3016800</v>
+        <v>3257500</v>
       </c>
       <c r="E48" s="3">
-        <v>3750900</v>
+        <v>3325600</v>
       </c>
       <c r="F48" s="3">
-        <v>3684800</v>
+        <v>3326400</v>
       </c>
       <c r="G48" s="3">
+        <v>3320700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3127000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3888000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3819400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3921800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>3903400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>3694300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>4112100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>3466800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>3047200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5870900</v>
+        <v>6029200</v>
       </c>
       <c r="E49" s="3">
-        <v>6330200</v>
+        <v>6203200</v>
       </c>
       <c r="F49" s="3">
-        <v>6182300</v>
+        <v>6199500</v>
       </c>
       <c r="G49" s="3">
+        <v>6261900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6085400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6561500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6408200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6425800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>6393000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>6170100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>6509000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>6582500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>5362300</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2395,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,40 +2439,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>750500</v>
+        <v>844400</v>
       </c>
       <c r="E52" s="3">
-        <v>801400</v>
+        <v>860100</v>
       </c>
       <c r="F52" s="3">
-        <v>907100</v>
+        <v>820800</v>
       </c>
       <c r="G52" s="3">
+        <v>799300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>778000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>830700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>940200</v>
+      </c>
+      <c r="K52" s="3">
         <v>841300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>970900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>945600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>977500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>927200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>484400</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2527,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14419700</v>
+        <v>14083300</v>
       </c>
       <c r="E54" s="3">
-        <v>14557400</v>
+        <v>13924000</v>
       </c>
       <c r="F54" s="3">
-        <v>14262300</v>
+        <v>13890100</v>
       </c>
       <c r="G54" s="3">
+        <v>14141600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>14946700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>15089400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14783400</v>
+      </c>
+      <c r="K54" s="3">
         <v>14775300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>14646000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>14233000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>14768200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>14828500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>12752600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2597,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,200 +2615,276 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>807300</v>
+        <v>949500</v>
       </c>
       <c r="E57" s="3">
-        <v>865200</v>
+        <v>857400</v>
       </c>
       <c r="F57" s="3">
-        <v>953700</v>
+        <v>887100</v>
       </c>
       <c r="G57" s="3">
+        <v>1058600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>836800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>896800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>988600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1032100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>972100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>942500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>1016700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1478500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>1206000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>591900</v>
+        <v>998500</v>
       </c>
       <c r="E58" s="3">
-        <v>664300</v>
+        <v>977800</v>
       </c>
       <c r="F58" s="3">
-        <v>836700</v>
+        <v>997600</v>
       </c>
       <c r="G58" s="3">
+        <v>669300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>613500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>688500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>867300</v>
+      </c>
+      <c r="K58" s="3">
         <v>887900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>400000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>385800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>592400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>162100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>491800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1290800</v>
+        <v>1069500</v>
       </c>
       <c r="E59" s="3">
-        <v>1032800</v>
+        <v>1024800</v>
       </c>
       <c r="F59" s="3">
-        <v>1297900</v>
+        <v>1144000</v>
       </c>
       <c r="G59" s="3">
+        <v>712600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1337900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1070600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1345400</v>
+      </c>
+      <c r="K59" s="3">
         <v>955300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>810200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>687100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>837100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>476400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>280700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2689900</v>
+        <v>3017500</v>
       </c>
       <c r="E60" s="3">
-        <v>2562300</v>
+        <v>2860000</v>
       </c>
       <c r="F60" s="3">
-        <v>3088400</v>
+        <v>3028600</v>
       </c>
       <c r="G60" s="3">
+        <v>2440500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2788200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2655900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3201300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2875300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>2182300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>2015400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>2446200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>2117000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>1978600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4190500</v>
+        <v>3255900</v>
       </c>
       <c r="E61" s="3">
-        <v>4231400</v>
+        <v>3212600</v>
       </c>
       <c r="F61" s="3">
-        <v>3623900</v>
+        <v>3241300</v>
       </c>
       <c r="G61" s="3">
+        <v>3763500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4279800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4356300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3616700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3711800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>4365500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>4621400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>4425500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>4559000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>3705600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>757800</v>
+        <v>856600</v>
       </c>
       <c r="E62" s="3">
-        <v>893900</v>
+        <v>925500</v>
       </c>
       <c r="F62" s="3">
-        <v>880900</v>
+        <v>893100</v>
       </c>
       <c r="G62" s="3">
+        <v>874500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>849400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>956300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1052700</v>
+      </c>
+      <c r="K62" s="3">
         <v>910600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>1093500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>990000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>1105200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>1290200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>749800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2915,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2959,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +3003,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8462100</v>
+        <v>7487000</v>
       </c>
       <c r="E66" s="3">
-        <v>8569300</v>
+        <v>7370300</v>
       </c>
       <c r="F66" s="3">
-        <v>8448500</v>
+        <v>7528000</v>
       </c>
       <c r="G66" s="3">
+        <v>7443500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8771400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8882500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>8757300</v>
+      </c>
+      <c r="K66" s="3">
         <v>8436000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>8486500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>8441000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>8850100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>8343000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>6702300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3073,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3109,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3153,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3197,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3241,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3251800</v>
+        <v>3963300</v>
       </c>
       <c r="E72" s="3">
-        <v>3096200</v>
+        <v>3748400</v>
       </c>
       <c r="F72" s="3">
-        <v>2952500</v>
+        <v>3561000</v>
       </c>
       <c r="G72" s="3">
+        <v>3820800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3370700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3209300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3060300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3195600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>4389400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>4295300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>4164700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>4331800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>4146600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3329,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3373,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3417,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5957600</v>
+        <v>6596300</v>
       </c>
       <c r="E76" s="3">
-        <v>5988100</v>
+        <v>6553700</v>
       </c>
       <c r="F76" s="3">
-        <v>5813700</v>
+        <v>6362100</v>
       </c>
       <c r="G76" s="3">
+        <v>6698200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6175300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6206900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6026200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6339300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>6159500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>5792000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>5918100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>6485500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>6050300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3505,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>168900</v>
+        <v>215900</v>
       </c>
       <c r="E81" s="3">
-        <v>255200</v>
+        <v>325300</v>
       </c>
       <c r="F81" s="3">
-        <v>124800</v>
+        <v>139400</v>
       </c>
       <c r="G81" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>175100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>149100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>129400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1254000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>163000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>366200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>319700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>185300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>120300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,40 +3624,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>86400</v>
+        <v>140300</v>
       </c>
       <c r="E83" s="3">
-        <v>293000</v>
+        <v>285500</v>
       </c>
       <c r="F83" s="3">
-        <v>142700</v>
+        <v>143600</v>
       </c>
       <c r="G83" s="3">
+        <v>144400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>89500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>155800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>147900</v>
+      </c>
+      <c r="K83" s="3">
         <v>138200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>178300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>286500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>146600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>142000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>115600</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3704,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3748,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3792,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3836,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,40 +3880,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19800</v>
+        <v>496700</v>
       </c>
       <c r="E89" s="3">
-        <v>685300</v>
+        <v>863400</v>
       </c>
       <c r="F89" s="3">
-        <v>250600</v>
+        <v>392600</v>
       </c>
       <c r="G89" s="3">
+        <v>747800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>450600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>259700</v>
+      </c>
+      <c r="K89" s="3">
         <v>585900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>398700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>779800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>309100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>596600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>497600</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,40 +3950,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106900</v>
+        <v>-131400</v>
       </c>
       <c r="E91" s="3">
-        <v>-206300</v>
+        <v>-189900</v>
       </c>
       <c r="F91" s="3">
-        <v>-81700</v>
+        <v>-81600</v>
       </c>
       <c r="G91" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-283000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-78600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-211000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-72900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-301600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-152500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4030,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,40 +4074,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120900</v>
+        <v>-128200</v>
       </c>
       <c r="E94" s="3">
-        <v>-533400</v>
+        <v>-193500</v>
       </c>
       <c r="F94" s="3">
-        <v>-85100</v>
+        <v>-69500</v>
       </c>
       <c r="G94" s="3">
+        <v>233700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-125300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-464700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-532200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-124500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>51700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-978900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-179100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +4144,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3257,31 +4157,43 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-182500</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-182500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-179100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-188000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4224,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4268,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,100 +4312,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104300</v>
+        <v>-20400</v>
       </c>
       <c r="E100" s="3">
-        <v>119000</v>
+        <v>-648900</v>
       </c>
       <c r="F100" s="3">
-        <v>-65800</v>
+        <v>-299400</v>
       </c>
       <c r="G100" s="3">
+        <v>-778300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>191500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-130900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-447000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>20700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-119100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-66800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-51800</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-53000</v>
+        <v>13500</v>
       </c>
       <c r="E101" s="3">
-        <v>-27600</v>
+        <v>-33900</v>
       </c>
       <c r="F101" s="3">
-        <v>-59300</v>
+        <v>-29700</v>
       </c>
       <c r="G101" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-10900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-144700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-50000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-62100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-29800</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-258300</v>
+        <v>361600</v>
       </c>
       <c r="E102" s="3">
-        <v>243200</v>
+        <v>-12900</v>
       </c>
       <c r="F102" s="3">
-        <v>40500</v>
+        <v>-6000</v>
       </c>
       <c r="G102" s="3">
+        <v>229900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>210200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-74400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-204300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>707500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>132100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-511300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>236800</v>
       </c>
     </row>
